--- a/popgen/2017_11_10 Pop Gen Full sample info.xlsx
+++ b/popgen/2017_11_10 Pop Gen Full sample info.xlsx
@@ -2579,14 +2579,14 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -13114,13 +13114,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ADAC7E-9BA3-4B3E-8573-611E72D1A3C2}">
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.75" style="123" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="121" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -13410,7 +13410,7 @@
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -13430,7 +13430,7 @@
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -13450,7 +13450,7 @@
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -13470,7 +13470,7 @@
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -13490,7 +13490,7 @@
       <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -13510,7 +13510,7 @@
       <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -13530,7 +13530,7 @@
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -13550,7 +13550,7 @@
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -13570,7 +13570,7 @@
       <c r="B23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -13590,7 +13590,7 @@
       <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E24" s="15" t="s">
@@ -13610,7 +13610,7 @@
       <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E25" s="15" t="s">
@@ -13630,7 +13630,7 @@
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -13650,7 +13650,7 @@
       <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E27" s="15" t="s">
@@ -13670,7 +13670,7 @@
       <c r="B28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="121" t="s">
         <v>651</v>
       </c>
       <c r="E28" s="15" t="s">
@@ -13690,7 +13690,7 @@
       <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E29" s="15" t="s">
@@ -13710,7 +13710,7 @@
       <c r="B30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="123" t="s">
+      <c r="C30" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E30" s="15" t="s">
@@ -13730,7 +13730,7 @@
       <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -13750,7 +13750,7 @@
       <c r="B32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -13770,7 +13770,7 @@
       <c r="B33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E33" s="15" t="s">
@@ -13790,7 +13790,7 @@
       <c r="B34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="123" t="s">
+      <c r="C34" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E34" s="15" t="s">
@@ -13810,7 +13810,7 @@
       <c r="B35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E35" s="15" t="s">
@@ -13830,7 +13830,7 @@
       <c r="B36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E36" s="15" t="s">
@@ -13850,7 +13850,7 @@
       <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -13870,7 +13870,7 @@
       <c r="B38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="123" t="s">
+      <c r="C38" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -13890,7 +13890,7 @@
       <c r="B39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E39" s="15" t="s">
@@ -13910,7 +13910,7 @@
       <c r="B40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E40" s="15" t="s">
@@ -13930,7 +13930,7 @@
       <c r="B41" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E41" s="15" t="s">
@@ -13950,7 +13950,7 @@
       <c r="B42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="123" t="s">
+      <c r="C42" s="121" t="s">
         <v>652</v>
       </c>
       <c r="E42" s="15" t="s">
@@ -13970,7 +13970,7 @@
       <c r="B43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="123" t="s">
+      <c r="C43" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E43" s="15" t="s">
@@ -13990,7 +13990,7 @@
       <c r="B44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="123" t="s">
+      <c r="C44" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E44" s="15" t="s">
@@ -14010,7 +14010,7 @@
       <c r="B45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="123" t="s">
+      <c r="C45" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -14030,7 +14030,7 @@
       <c r="B46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="123" t="s">
+      <c r="C46" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E46" s="15" t="s">
@@ -14050,7 +14050,7 @@
       <c r="B47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="123" t="s">
+      <c r="C47" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E47" s="15" t="s">
@@ -14070,7 +14070,7 @@
       <c r="B48" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="123" t="s">
+      <c r="C48" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E48" s="15" t="s">
@@ -14090,7 +14090,7 @@
       <c r="B49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="123" t="s">
+      <c r="C49" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E49" s="15" t="s">
@@ -14110,7 +14110,7 @@
       <c r="B50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="123" t="s">
+      <c r="C50" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E50" s="15" t="s">
@@ -14130,7 +14130,7 @@
       <c r="B51" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="123" t="s">
+      <c r="C51" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -14150,7 +14150,7 @@
       <c r="B52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="123" t="s">
+      <c r="C52" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E52" s="15" t="s">
@@ -14170,7 +14170,7 @@
       <c r="B53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="123" t="s">
+      <c r="C53" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E53" s="15" t="s">
@@ -14190,7 +14190,7 @@
       <c r="B54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="123" t="s">
+      <c r="C54" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E54" s="15" t="s">
@@ -14210,7 +14210,7 @@
       <c r="B55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="123" t="s">
+      <c r="C55" s="121" t="s">
         <v>653</v>
       </c>
       <c r="E55" s="15" t="s">
@@ -14230,7 +14230,7 @@
       <c r="B56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="123" t="s">
+      <c r="C56" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -14250,7 +14250,7 @@
       <c r="B57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="123" t="s">
+      <c r="C57" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E57" s="15" t="s">
@@ -14270,7 +14270,7 @@
       <c r="B58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="123" t="s">
+      <c r="C58" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E58" s="15" t="s">
@@ -14290,7 +14290,7 @@
       <c r="B59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="123" t="s">
+      <c r="C59" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E59" s="15" t="s">
@@ -14310,7 +14310,7 @@
       <c r="B60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="123" t="s">
+      <c r="C60" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E60" s="15" t="s">
@@ -14330,7 +14330,7 @@
       <c r="B61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="123" t="s">
+      <c r="C61" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E61" s="15" t="s">
@@ -14350,7 +14350,7 @@
       <c r="B62" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="123" t="s">
+      <c r="C62" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E62" s="15" t="s">
@@ -14370,7 +14370,7 @@
       <c r="B63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="123" t="s">
+      <c r="C63" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E63" s="15" t="s">
@@ -14390,7 +14390,7 @@
       <c r="B64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="123" t="s">
+      <c r="C64" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E64" s="15" t="s">
@@ -14410,7 +14410,7 @@
       <c r="B65" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="123" t="s">
+      <c r="C65" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E65" s="15" t="s">
@@ -14430,7 +14430,7 @@
       <c r="B66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="123" t="s">
+      <c r="C66" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E66" s="15" t="s">
@@ -14450,7 +14450,7 @@
       <c r="B67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="123" t="s">
+      <c r="C67" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E67" s="15" t="s">
@@ -14470,7 +14470,7 @@
       <c r="B68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="123" t="s">
+      <c r="C68" s="121" t="s">
         <v>654</v>
       </c>
       <c r="E68" s="15" t="s">
@@ -14750,7 +14750,7 @@
       <c r="B82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="123" t="s">
+      <c r="C82" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E82" s="4" t="s">
@@ -14770,7 +14770,7 @@
       <c r="B83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="123" t="s">
+      <c r="C83" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -14790,7 +14790,7 @@
       <c r="B84" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="123" t="s">
+      <c r="C84" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -14810,7 +14810,7 @@
       <c r="B85" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="123" t="s">
+      <c r="C85" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -14830,7 +14830,7 @@
       <c r="B86" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="123" t="s">
+      <c r="C86" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -14850,7 +14850,7 @@
       <c r="B87" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="123" t="s">
+      <c r="C87" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E87" s="4" t="s">
@@ -14870,7 +14870,7 @@
       <c r="B88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="123" t="s">
+      <c r="C88" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -14890,7 +14890,7 @@
       <c r="B89" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="123" t="s">
+      <c r="C89" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -14910,7 +14910,7 @@
       <c r="B90" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="123" t="s">
+      <c r="C90" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -14930,7 +14930,7 @@
       <c r="B91" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="123" t="s">
+      <c r="C91" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -14950,7 +14950,7 @@
       <c r="B92" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="123" t="s">
+      <c r="C92" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -14970,7 +14970,7 @@
       <c r="B93" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="123" t="s">
+      <c r="C93" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E93" s="4" t="s">
@@ -14990,7 +14990,7 @@
       <c r="B94" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="123" t="s">
+      <c r="C94" s="121" t="s">
         <v>655</v>
       </c>
       <c r="E94" s="4" t="s">
@@ -15270,7 +15270,7 @@
       <c r="B108" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="123" t="s">
+      <c r="C108" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E108" s="15" t="s">
@@ -15290,7 +15290,7 @@
       <c r="B109" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="123" t="s">
+      <c r="C109" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E109" s="15" t="s">
@@ -15310,7 +15310,7 @@
       <c r="B110" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="123" t="s">
+      <c r="C110" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E110" s="15" t="s">
@@ -15330,7 +15330,7 @@
       <c r="B111" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C111" s="123" t="s">
+      <c r="C111" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E111" s="15" t="s">
@@ -15350,7 +15350,7 @@
       <c r="B112" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="123" t="s">
+      <c r="C112" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E112" s="15" t="s">
@@ -15370,7 +15370,7 @@
       <c r="B113" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C113" s="123" t="s">
+      <c r="C113" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E113" s="117" t="s">
@@ -15390,7 +15390,7 @@
       <c r="B114" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="123" t="s">
+      <c r="C114" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E114" s="15" t="s">
@@ -15410,7 +15410,7 @@
       <c r="B115" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="123" t="s">
+      <c r="C115" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E115" s="15" t="s">
@@ -15430,7 +15430,7 @@
       <c r="B116" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="123" t="s">
+      <c r="C116" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E116" s="15" t="s">
@@ -15450,7 +15450,7 @@
       <c r="B117" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="123" t="s">
+      <c r="C117" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E117" s="15" t="s">
@@ -15470,7 +15470,7 @@
       <c r="B118" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="123" t="s">
+      <c r="C118" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E118" s="15" t="s">
@@ -15490,7 +15490,7 @@
       <c r="B119" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="123" t="s">
+      <c r="C119" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E119" s="15" t="s">
@@ -15510,7 +15510,7 @@
       <c r="B120" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C120" s="123" t="s">
+      <c r="C120" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E120" s="15" t="s">
@@ -15530,7 +15530,7 @@
       <c r="B121" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="123" t="s">
+      <c r="C121" s="121" t="s">
         <v>656</v>
       </c>
       <c r="E121" s="15" t="s">
@@ -15550,7 +15550,7 @@
       <c r="B122" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="123" t="s">
+      <c r="C122" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E122" s="4" t="s">
@@ -15570,7 +15570,7 @@
       <c r="B123" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="123" t="s">
+      <c r="C123" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E123" s="4" t="s">
@@ -15590,7 +15590,7 @@
       <c r="B124" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="123" t="s">
+      <c r="C124" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E124" s="4" t="s">
@@ -15610,7 +15610,7 @@
       <c r="B125" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C125" s="123" t="s">
+      <c r="C125" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E125" s="4" t="s">
@@ -15630,7 +15630,7 @@
       <c r="B126" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C126" s="123" t="s">
+      <c r="C126" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E126" s="4" t="s">
@@ -15650,7 +15650,7 @@
       <c r="B127" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="123" t="s">
+      <c r="C127" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -15670,7 +15670,7 @@
       <c r="B128" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C128" s="123" t="s">
+      <c r="C128" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E128" s="4" t="s">
@@ -15690,7 +15690,7 @@
       <c r="B129" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="123" t="s">
+      <c r="C129" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E129" s="4" t="s">
@@ -15710,7 +15710,7 @@
       <c r="B130" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C130" s="123" t="s">
+      <c r="C130" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E130" s="4" t="s">
@@ -15730,7 +15730,7 @@
       <c r="B131" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C131" s="123" t="s">
+      <c r="C131" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E131" s="4" t="s">
@@ -15750,7 +15750,7 @@
       <c r="B132" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C132" s="123" t="s">
+      <c r="C132" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E132" s="4" t="s">
@@ -15770,7 +15770,7 @@
       <c r="B133" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="123" t="s">
+      <c r="C133" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E133" s="4" t="s">
@@ -15790,7 +15790,7 @@
       <c r="B134" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="123" t="s">
+      <c r="C134" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E134" s="4" t="s">
@@ -15810,7 +15810,7 @@
       <c r="B135" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="123" t="s">
+      <c r="C135" s="121" t="s">
         <v>657</v>
       </c>
       <c r="E135" s="4" t="s">
@@ -16967,31 +16967,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="68" customFormat="1" ht="15.75">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
       <c r="X1" s="95"/>
     </row>
     <row r="2" spans="1:24" ht="13.15">

--- a/popgen/2017_11_10 Pop Gen Full sample info.xlsx
+++ b/popgen/2017_11_10 Pop Gen Full sample info.xlsx
@@ -13114,3813 +13114,3813 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ADAC7E-9BA3-4B3E-8573-611E72D1A3C2}">
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="17.75" style="121" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="121" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>149</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="121" t="s">
+      <c r="B15" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="121" t="s">
+      <c r="B16" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="121" t="s">
+      <c r="B17" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="121" t="s">
+      <c r="B18" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="121" t="s">
+      <c r="B19" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="121" t="s">
+      <c r="B20" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="121" t="s">
+      <c r="B21" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="121" t="s">
+      <c r="B22" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G22" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="121" t="s">
+      <c r="B23" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G23" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="121" t="s">
+      <c r="B24" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="121" t="s">
+      <c r="B25" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="121" t="s">
+      <c r="B26" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="121" t="s">
+      <c r="B27" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G27" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="121" t="s">
+      <c r="B28" s="121" t="s">
         <v>651</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G28" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="121" t="s">
+      <c r="B29" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="121" t="s">
+      <c r="B30" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G30" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="121" t="s">
+      <c r="B31" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="121" t="s">
+      <c r="B32" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G32" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="121" t="s">
+      <c r="B33" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="121" t="s">
+      <c r="B34" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="121" t="s">
+      <c r="B35" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G35" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="121" t="s">
+      <c r="B36" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="121" t="s">
+      <c r="B37" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G37" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="121" t="s">
+      <c r="B38" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="F38" s="51" t="s">
+      <c r="F38" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G38" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="121" t="s">
+      <c r="B39" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="121" t="s">
+      <c r="B40" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="F40" s="51" t="s">
+      <c r="F40" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="121" t="s">
+      <c r="B41" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G41" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="121" t="s">
+      <c r="B42" s="121" t="s">
         <v>652</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="F42" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G42" s="60" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="121" t="s">
+      <c r="B43" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G43" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G43" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="121" t="s">
+      <c r="B44" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="121" t="s">
+      <c r="B45" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G45" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G45" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="121" t="s">
+      <c r="B46" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="F46" s="51" t="s">
+      <c r="F46" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G46" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="121" t="s">
+      <c r="B47" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="F47" s="51" t="s">
+      <c r="F47" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G47" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G47" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="121" t="s">
+      <c r="B48" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G48" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G48" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="121" t="s">
+      <c r="B49" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G49" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="121" t="s">
+      <c r="B50" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="F50" s="51" t="s">
+      <c r="F50" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G50" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G50" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="121" t="s">
+      <c r="B51" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="F51" s="51" t="s">
+      <c r="F51" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G51" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="121" t="s">
+      <c r="B52" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="F52" s="51" t="s">
+      <c r="F52" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G52" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="121" t="s">
+      <c r="B53" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="F53" s="51" t="s">
+      <c r="F53" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G53" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G53" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="121" t="s">
+      <c r="B54" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G54" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G54" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="121" t="s">
+      <c r="B55" s="121" t="s">
         <v>653</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="F55" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G55" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="121" t="s">
+      <c r="B56" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="F56" s="51" t="s">
+      <c r="F56" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G56" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G56" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="121" t="s">
+      <c r="B57" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G57" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G57" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="121" t="s">
+      <c r="B58" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="F58" s="51" t="s">
+      <c r="F58" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G58" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="121" t="s">
+      <c r="B59" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="F59" s="51" t="s">
+      <c r="F59" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G59" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G59" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="121" t="s">
+      <c r="B60" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="F60" s="51" t="s">
+      <c r="F60" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G60" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G60" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="121" t="s">
+      <c r="B61" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="F61" s="51" t="s">
+      <c r="F61" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G61" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G61" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="121" t="s">
+      <c r="B62" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="F62" s="51" t="s">
+      <c r="F62" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G62" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G62" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="121" t="s">
+      <c r="B63" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="F63" s="51" t="s">
+      <c r="F63" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G63" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G63" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="121" t="s">
+      <c r="B64" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="F64" s="51" t="s">
+      <c r="F64" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G64" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G64" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="121" t="s">
+      <c r="B65" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="F65" s="51" t="s">
+      <c r="F65" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G65" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G65" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="121" t="s">
+      <c r="B66" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="F66" s="51" t="s">
+      <c r="F66" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G66" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G66" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="121" t="s">
+      <c r="B67" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="F67" s="51" t="s">
+      <c r="F67" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G67" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G67" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="121" t="s">
+      <c r="B68" s="121" t="s">
         <v>654</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="F68" s="51" t="s">
+      <c r="F68" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G68" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G68" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="F69" s="51" t="s">
+      <c r="F69" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G69" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G69" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="F70" s="51" t="s">
+      <c r="F70" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G70" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G70" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="F71" s="51" t="s">
+      <c r="F71" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G71" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G71" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="F72" s="51" t="s">
+      <c r="F72" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G72" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="F73" s="51" t="s">
+      <c r="F73" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G73" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G73" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="F74" s="51" t="s">
+      <c r="F74" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G74" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G74" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="F75" s="51" t="s">
+      <c r="F75" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G75" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G75" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="F76" s="51" t="s">
+      <c r="F76" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G76" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G76" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="F77" s="51" t="s">
+      <c r="F77" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G77" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G77" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="7" t="s">
+      <c r="B78" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="F78" s="51" t="s">
+      <c r="F78" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G78" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G78" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="F79" s="51" t="s">
+      <c r="F79" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G79" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G79" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="F80" s="51" t="s">
+      <c r="F80" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G80" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G80" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="7" t="s">
         <v>253</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="F81" s="51" t="s">
+      <c r="F81" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G81" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G81" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="121" t="s">
+      <c r="B82" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F82" s="51" t="s">
+      <c r="F82" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G82" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G82" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="121" t="s">
+      <c r="B83" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="51" t="s">
+      <c r="F83" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G83" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G83" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="121" t="s">
+      <c r="B84" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="51" t="s">
+      <c r="F84" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G84" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G84" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="121" t="s">
+      <c r="B85" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="51" t="s">
+      <c r="F85" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G85" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G85" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="121" t="s">
+      <c r="B86" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="51" t="s">
+      <c r="F86" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G86" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G86" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="121" t="s">
+      <c r="B87" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F87" s="51" t="s">
+      <c r="F87" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G87" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G87" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="121" t="s">
+      <c r="B88" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="51" t="s">
+      <c r="F88" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G88" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G88" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="121" t="s">
+      <c r="B89" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="51" t="s">
+      <c r="F89" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G89" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G89" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="121" t="s">
+      <c r="B90" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="51" t="s">
+      <c r="F90" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G90" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G90" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="121" t="s">
+      <c r="B91" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F91" s="51" t="s">
+      <c r="F91" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G91" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G91" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="121" t="s">
+      <c r="B92" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F92" s="51" t="s">
+      <c r="F92" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G92" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G92" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="121" t="s">
+      <c r="B93" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="51" t="s">
+      <c r="F93" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G93" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G93" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="121" t="s">
+      <c r="B94" s="121" t="s">
         <v>655</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F94" s="51" t="s">
+      <c r="F94" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G94" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G94" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="7" t="s">
+      <c r="B95" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F95" s="51" t="s">
+      <c r="F95" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G95" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G95" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="7" t="s">
+      <c r="B96" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F96" s="51" t="s">
+      <c r="F96" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G96" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G96" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="7" t="s">
+      <c r="B97" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F97" s="51" t="s">
+      <c r="F97" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G97" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G97" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F98" s="51" t="s">
+      <c r="F98" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G98" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G98" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="7" t="s">
+      <c r="B99" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F99" s="51" t="s">
+      <c r="F99" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G99" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G99" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="7" t="s">
+      <c r="B100" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F100" s="51" t="s">
+      <c r="F100" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G100" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G100" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="7" t="s">
+      <c r="B101" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F101" s="51" t="s">
+      <c r="F101" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G101" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G101" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="7" t="s">
+      <c r="B102" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F102" s="51" t="s">
+      <c r="F102" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G102" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G102" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F103" s="51" t="s">
+      <c r="F103" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G103" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G103" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F104" s="51" t="s">
+      <c r="F104" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G104" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G104" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="108" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="110" t="s">
+      <c r="B105" s="110" t="s">
         <v>31</v>
+      </c>
+      <c r="C105" s="108" t="s">
+        <v>15</v>
       </c>
       <c r="E105" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="F105" s="109" t="s">
+      <c r="F105" s="114" t="s">
+        <v>283</v>
+      </c>
+      <c r="G105" s="109" t="s">
         <v>282</v>
-      </c>
-      <c r="G105" s="114" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F106" s="51" t="s">
+      <c r="F106" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G106" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G106" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="7" t="s">
+      <c r="B107" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="51" t="s">
+      <c r="F107" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G107" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G107" s="60" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="121" t="s">
+      <c r="B108" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E108" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="F108" s="51" t="s">
+      <c r="F108" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G108" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G108" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="121" t="s">
+      <c r="B109" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E109" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="F109" s="51" t="s">
+      <c r="F109" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G109" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G109" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="121" t="s">
+      <c r="B110" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E110" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="F110" s="51" t="s">
+      <c r="F110" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G110" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G110" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111" s="121" t="s">
+      <c r="B111" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E111" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="F111" s="51" t="s">
+      <c r="F111" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G111" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G111" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="121" t="s">
+      <c r="B112" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E112" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="F112" s="51" t="s">
+      <c r="F112" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G112" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G112" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="117" t="s">
         <v>642</v>
       </c>
-      <c r="B113" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="121" t="s">
+      <c r="B113" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C113" s="96" t="s">
+        <v>15</v>
       </c>
       <c r="E113" s="117" t="s">
         <v>642</v>
       </c>
-      <c r="F113" s="97" t="s">
+      <c r="F113" s="100" t="s">
+        <v>292</v>
+      </c>
+      <c r="G113" s="97" t="s">
         <v>291</v>
-      </c>
-      <c r="G113" s="100" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="121" t="s">
+      <c r="B114" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E114" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="F114" s="51" t="s">
+      <c r="F114" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G114" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G114" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="121" t="s">
+      <c r="B115" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E115" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="F115" s="51" t="s">
+      <c r="F115" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G115" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G115" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C116" s="121" t="s">
+      <c r="B116" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E116" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="F116" s="51" t="s">
+      <c r="F116" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G116" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G116" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="121" t="s">
+      <c r="B117" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E117" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="F117" s="51" t="s">
+      <c r="F117" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G117" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G117" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C118" s="121" t="s">
+      <c r="B118" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E118" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="F118" s="51" t="s">
+      <c r="F118" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G118" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G118" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="121" t="s">
+      <c r="B119" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E119" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="F119" s="51" t="s">
+      <c r="F119" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G119" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G119" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="121" t="s">
+      <c r="B120" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E120" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="F120" s="51" t="s">
+      <c r="F120" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G120" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G120" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="121" t="s">
+      <c r="B121" s="121" t="s">
         <v>656</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E121" s="15" t="s">
         <v>650</v>
       </c>
-      <c r="F121" s="51" t="s">
+      <c r="F121" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G121" s="51" t="s">
         <v>291</v>
-      </c>
-      <c r="G121" s="60" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="121" t="s">
+      <c r="B122" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F122" s="51" t="s">
+      <c r="F122" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G122" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G122" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="121" t="s">
+      <c r="B123" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F123" s="51" t="s">
+      <c r="F123" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G123" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G123" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="121" t="s">
+      <c r="B124" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F124" s="51" t="s">
+      <c r="F124" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G124" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G124" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="121" t="s">
+      <c r="B125" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F125" s="51" t="s">
+      <c r="F125" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G125" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G125" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="121" t="s">
+      <c r="B126" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F126" s="51" t="s">
+      <c r="F126" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G126" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G126" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="121" t="s">
+      <c r="B127" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F127" s="51" t="s">
+      <c r="F127" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G127" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G127" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="121" t="s">
+      <c r="B128" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F128" s="51" t="s">
+      <c r="F128" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G128" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G128" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="121" t="s">
+      <c r="B129" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F129" s="51" t="s">
+      <c r="F129" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G129" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G129" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="121" t="s">
+      <c r="B130" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F130" s="51" t="s">
+      <c r="F130" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G130" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G130" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="121" t="s">
+      <c r="B131" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F131" s="51" t="s">
+      <c r="F131" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G131" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G131" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B132" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="121" t="s">
+      <c r="B132" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F132" s="51" t="s">
+      <c r="F132" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G132" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G132" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B133" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="121" t="s">
+      <c r="B133" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F133" s="51" t="s">
+      <c r="F133" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G133" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G133" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" s="121" t="s">
+      <c r="B134" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F134" s="51" t="s">
+      <c r="F134" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G134" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G134" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="121" t="s">
+      <c r="B135" s="121" t="s">
         <v>657</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F135" s="51" t="s">
+      <c r="F135" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G135" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G135" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C136" s="7" t="s">
+      <c r="B136" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F136" s="51" t="s">
+      <c r="F136" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G136" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G136" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137" s="7" t="s">
+      <c r="B137" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F137" s="51" t="s">
+      <c r="F137" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G137" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G137" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C138" s="7" t="s">
+      <c r="B138" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F138" s="51" t="s">
+      <c r="F138" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G138" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G138" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C139" s="7" t="s">
+      <c r="B139" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F139" s="51" t="s">
+      <c r="F139" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G139" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G139" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" s="7" t="s">
+      <c r="B140" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F140" s="51" t="s">
+      <c r="F140" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G140" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G140" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" s="7" t="s">
+      <c r="B141" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F141" s="51" t="s">
+      <c r="F141" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G141" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G141" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="7" t="s">
+      <c r="B142" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F142" s="51" t="s">
+      <c r="F142" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G142" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G142" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" s="7" t="s">
+      <c r="B143" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F143" s="51" t="s">
+      <c r="F143" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G143" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G143" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="7" t="s">
+      <c r="B144" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F144" s="51" t="s">
+      <c r="F144" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G144" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G144" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C145" s="7" t="s">
+      <c r="B145" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="51" t="s">
+      <c r="F145" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G145" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G145" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C146" s="7" t="s">
+      <c r="B146" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F146" s="51" t="s">
+      <c r="F146" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G146" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G146" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C147" s="7" t="s">
+      <c r="B147" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F147" s="51" t="s">
+      <c r="F147" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G147" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G147" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C148" s="7" t="s">
+      <c r="B148" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F148" s="51" t="s">
+      <c r="F148" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G148" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="G148" s="60" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B149" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C149" s="7" t="s">
+      <c r="B149" s="7" t="s">
         <v>46</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F149" s="56" t="s">
+      <c r="F149" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="G149" s="56" t="s">
         <v>284</v>
-      </c>
-      <c r="G149" s="105" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F150" s="51" t="s">
+      <c r="F150" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G150" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G150" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F151" s="51" t="s">
+      <c r="F151" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G151" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G151" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F152" s="51" t="s">
+      <c r="F152" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G152" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G152" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F153" s="51" t="s">
+      <c r="F153" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G153" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G153" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F154" s="51" t="s">
+      <c r="F154" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G154" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G154" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F155" s="51" t="s">
+      <c r="F155" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G155" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G155" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F156" s="51" t="s">
+      <c r="F156" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G156" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G156" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F157" s="51" t="s">
+      <c r="F157" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G157" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G157" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F158" s="51" t="s">
+      <c r="F158" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G158" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G158" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F159" s="51" t="s">
+      <c r="F159" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G159" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G159" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F160" s="51" t="s">
+      <c r="F160" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G160" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G160" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F161" s="51" t="s">
+      <c r="F161" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G161" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G161" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F162" s="51" t="s">
+      <c r="F162" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="G162" s="51" t="s">
         <v>288</v>
-      </c>
-      <c r="G162" s="60" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F163" s="51" t="s">
+      <c r="F163" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G163" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G163" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F164" s="51" t="s">
+      <c r="F164" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G164" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G164" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F165" s="51" t="s">
+      <c r="F165" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G165" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G165" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F166" s="51" t="s">
+      <c r="F166" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G166" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G166" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F167" s="51" t="s">
+      <c r="F167" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G167" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G167" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F168" s="51" t="s">
+      <c r="F168" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G168" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G168" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F169" s="51" t="s">
+      <c r="F169" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G169" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G169" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F170" s="51" t="s">
+      <c r="F170" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G170" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G170" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F171" s="51" t="s">
+      <c r="F171" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G171" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G171" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F172" s="51" t="s">
+      <c r="F172" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G172" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G172" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F173" s="51" t="s">
+      <c r="F173" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G173" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G173" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F174" s="51" t="s">
+      <c r="F174" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G174" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G174" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F175" s="51" t="s">
+      <c r="F175" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G175" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G175" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F176" s="51" t="s">
+      <c r="F176" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G176" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G176" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F177" s="51" t="s">
+      <c r="F177" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G177" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G177" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F178" s="51" t="s">
+      <c r="F178" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G178" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G178" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F179" s="51" t="s">
+      <c r="F179" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G179" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G179" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F180" s="51" t="s">
+      <c r="F180" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G180" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G180" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C181" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F181" s="51" t="s">
+      <c r="F181" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G181" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G181" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F182" s="51" t="s">
+      <c r="F182" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G182" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G182" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F183" s="51" t="s">
+      <c r="F183" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G183" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G183" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F184" s="51" t="s">
+      <c r="F184" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G184" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G184" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F185" s="51" t="s">
+      <c r="F185" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G185" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G185" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F186" s="51" t="s">
+      <c r="F186" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G186" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G186" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F187" s="51" t="s">
+      <c r="F187" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G187" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G187" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C188" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F188" s="51" t="s">
+      <c r="F188" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G188" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G188" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C189" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F189" s="51" t="s">
+      <c r="F189" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G189" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G189" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C190" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F190" s="51" t="s">
+      <c r="F190" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="G190" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="G190" s="60" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
